--- a/example/parameter.xlsx
+++ b/example/parameter.xlsx
@@ -24,100 +24,100 @@
     <t>FILL STYLE</t>
   </si>
   <si>
+    <t>BDR_Dotted</t>
+  </si>
+  <si>
+    <t>PTN_LightTrellis</t>
+  </si>
+  <si>
+    <t>BDR_SlantDashDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkUp</t>
+  </si>
+  <si>
+    <t>BDR_Dashed</t>
+  </si>
+  <si>
+    <t>PTN_Solid</t>
+  </si>
+  <si>
     <t>BDR_None</t>
   </si>
   <si>
+    <t>PTN_DarkTrellis</t>
+  </si>
+  <si>
+    <t>BDR_DashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_LightGray</t>
+  </si>
+  <si>
+    <t>BDR_DashDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkHorizontal</t>
+  </si>
+  <si>
+    <t>BDR_Thick</t>
+  </si>
+  <si>
+    <t>PTN_Gray0625</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkDown</t>
+  </si>
+  <si>
+    <t>BDR_Hair</t>
+  </si>
+  <si>
+    <t>PTN_LightHorizontal</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkGray</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashed</t>
+  </si>
+  <si>
+    <t>PTN_LightDown</t>
+  </si>
+  <si>
+    <t>BDR_Thin</t>
+  </si>
+  <si>
     <t>PTN_LightVertical</t>
   </si>
   <si>
-    <t>BDR_DashDot</t>
+    <t>BDR_Double</t>
+  </si>
+  <si>
+    <t>PTN_LightUp</t>
+  </si>
+  <si>
+    <t>BDR_Medium</t>
+  </si>
+  <si>
+    <t>PTN_DarkVertical</t>
+  </si>
+  <si>
+    <t>PTN_Gray125</t>
   </si>
   <si>
     <t>PTN_DarkGrid</t>
   </si>
   <si>
-    <t>BDR_MediumDashed</t>
-  </si>
-  <si>
-    <t>PTN_DarkGray</t>
-  </si>
-  <si>
-    <t>BDR_SlantDashDot</t>
-  </si>
-  <si>
-    <t>PTN_LightTrellis</t>
-  </si>
-  <si>
-    <t>BDR_DashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_LightUp</t>
-  </si>
-  <si>
-    <t>BDR_Double</t>
-  </si>
-  <si>
-    <t>PTN_DarkHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_Dashed</t>
-  </si>
-  <si>
-    <t>PTN_DarkUp</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDot</t>
-  </si>
-  <si>
-    <t>PTN_Gray125</t>
-  </si>
-  <si>
-    <t>BDR_Dotted</t>
-  </si>
-  <si>
-    <t>PTN_DarkDown</t>
-  </si>
-  <si>
-    <t>BDR_Thick</t>
-  </si>
-  <si>
-    <t>PTN_LightHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_Hair</t>
-  </si>
-  <si>
-    <t>PTN_DarkTrellis</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDotDot</t>
-  </si>
-  <si>
     <t>PTN_MediumGray</t>
   </si>
   <si>
-    <t>BDR_Thin</t>
-  </si>
-  <si>
-    <t>PTN_LightDown</t>
-  </si>
-  <si>
-    <t>BDR_Medium</t>
-  </si>
-  <si>
-    <t>PTN_Gray0625</t>
-  </si>
-  <si>
-    <t>PTN_Solid</t>
-  </si>
-  <si>
-    <t>PTN_LightGray</t>
-  </si>
-  <si>
     <t>PTN_LightGrid</t>
-  </si>
-  <si>
-    <t>PTN_DarkVertical</t>
   </si>
 </sst>
 </file>
@@ -149,109 +149,109 @@
       <patternFill patternType="lightGray"/>
     </fill>
     <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="lightVertical">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkGrid">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="mediumGray">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="lightDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
@@ -265,28 +265,70 @@
       <bottom style="none"/>
     </border>
     <border>
+      <left style="dotted"/>
+      <right style="dotted"/>
+      <top style="dotted"/>
+      <bottom style="dotted"/>
+    </border>
+    <border>
+      <left style="slantDashDot"/>
+      <right style="slantDashDot"/>
+      <top style="slantDashDot"/>
+      <bottom style="slantDashDot"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="dashDotDot"/>
+      <right style="dashDotDot"/>
+      <top style="dashDotDot"/>
+      <bottom style="dashDotDot"/>
+    </border>
+    <border>
       <left style="dashDot"/>
       <right style="dashDot"/>
       <top style="dashDot"/>
       <bottom style="dashDot"/>
     </border>
     <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="mediumDashDot"/>
+      <right style="mediumDashDot"/>
+      <top style="mediumDashDot"/>
+      <bottom style="mediumDashDot"/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot"/>
+      <right style="mediumDashDotDot"/>
+      <top style="mediumDashDotDot"/>
+      <bottom style="mediumDashDotDot"/>
+    </border>
+    <border>
       <left style="mediumDashed"/>
       <right style="mediumDashed"/>
       <top style="mediumDashed"/>
       <bottom style="mediumDashed"/>
     </border>
     <border>
-      <left style="slantDashDot"/>
-      <right style="slantDashDot"/>
-      <top style="slantDashDot"/>
-      <bottom style="slantDashDot"/>
-    </border>
-    <border>
-      <left style="dashDotDot"/>
-      <right style="dashDotDot"/>
-      <top style="dashDotDot"/>
-      <bottom style="dashDotDot"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
       <left style="double"/>
@@ -295,48 +337,6 @@
       <bottom style="double"/>
     </border>
     <border>
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
-    </border>
-    <border>
-      <left style="mediumDashDot"/>
-      <right style="mediumDashDot"/>
-      <top style="mediumDashDot"/>
-      <bottom style="mediumDashDot"/>
-    </border>
-    <border>
-      <left style="dotted"/>
-      <right style="dotted"/>
-      <top style="dotted"/>
-      <bottom style="dotted"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="mediumDashDotDot"/>
-      <right style="mediumDashDotDot"/>
-      <top style="mediumDashDotDot"/>
-      <bottom style="mediumDashDotDot"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
@@ -350,25 +350,25 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
@@ -457,25 +457,25 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="2" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="3" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="2" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">

--- a/example/parameter.xlsx
+++ b/example/parameter.xlsx
@@ -24,100 +24,100 @@
     <t>FILL STYLE</t>
   </si>
   <si>
+    <t>BDR_MediumDashDot</t>
+  </si>
+  <si>
+    <t>PTN_LightGray</t>
+  </si>
+  <si>
+    <t>BDR_SlantDashDot</t>
+  </si>
+  <si>
+    <t>PTN_LightDown</t>
+  </si>
+  <si>
+    <t>BDR_Thick</t>
+  </si>
+  <si>
+    <t>PTN_Gray125</t>
+  </si>
+  <si>
+    <t>BDR_Hair</t>
+  </si>
+  <si>
+    <t>PTN_DarkGrid</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkTrellis</t>
+  </si>
+  <si>
+    <t>BDR_Thin</t>
+  </si>
+  <si>
+    <t>PTN_LightUp</t>
+  </si>
+  <si>
+    <t>BDR_Dashed</t>
+  </si>
+  <si>
+    <t>PTN_DarkDown</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashed</t>
+  </si>
+  <si>
+    <t>PTN_DarkHorizontal</t>
+  </si>
+  <si>
+    <t>BDR_Double</t>
+  </si>
+  <si>
+    <t>PTN_LightGrid</t>
+  </si>
+  <si>
+    <t>BDR_DashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_LightTrellis</t>
+  </si>
+  <si>
+    <t>BDR_Medium</t>
+  </si>
+  <si>
+    <t>PTN_Solid</t>
+  </si>
+  <si>
+    <t>BDR_None</t>
+  </si>
+  <si>
+    <t>PTN_MediumGray</t>
+  </si>
+  <si>
+    <t>BDR_DashDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkUp</t>
+  </si>
+  <si>
     <t>BDR_Dotted</t>
   </si>
   <si>
-    <t>PTN_LightTrellis</t>
-  </si>
-  <si>
-    <t>BDR_SlantDashDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkUp</t>
-  </si>
-  <si>
-    <t>BDR_Dashed</t>
-  </si>
-  <si>
-    <t>PTN_Solid</t>
-  </si>
-  <si>
-    <t>BDR_None</t>
-  </si>
-  <si>
-    <t>PTN_DarkTrellis</t>
-  </si>
-  <si>
-    <t>BDR_DashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_LightGray</t>
-  </si>
-  <si>
-    <t>BDR_DashDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_Thick</t>
+    <t>PTN_DarkVertical</t>
+  </si>
+  <si>
+    <t>PTN_LightVertical</t>
+  </si>
+  <si>
+    <t>PTN_LightHorizontal</t>
+  </si>
+  <si>
+    <t>PTN_DarkGray</t>
   </si>
   <si>
     <t>PTN_Gray0625</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkDown</t>
-  </si>
-  <si>
-    <t>BDR_Hair</t>
-  </si>
-  <si>
-    <t>PTN_LightHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkGray</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashed</t>
-  </si>
-  <si>
-    <t>PTN_LightDown</t>
-  </si>
-  <si>
-    <t>BDR_Thin</t>
-  </si>
-  <si>
-    <t>PTN_LightVertical</t>
-  </si>
-  <si>
-    <t>BDR_Double</t>
-  </si>
-  <si>
-    <t>PTN_LightUp</t>
-  </si>
-  <si>
-    <t>BDR_Medium</t>
-  </si>
-  <si>
-    <t>PTN_DarkVertical</t>
-  </si>
-  <si>
-    <t>PTN_Gray125</t>
-  </si>
-  <si>
-    <t>PTN_DarkGrid</t>
-  </si>
-  <si>
-    <t>PTN_MediumGray</t>
-  </si>
-  <si>
-    <t>PTN_LightGrid</t>
   </si>
 </sst>
 </file>
@@ -149,109 +149,109 @@
       <patternFill patternType="lightGray"/>
     </fill>
     <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="lightTrellis">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="darkUp">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkHorizontal">
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="gray0625">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGrid">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
@@ -265,83 +265,83 @@
       <bottom style="none"/>
     </border>
     <border>
+      <left style="mediumDashDot"/>
+      <right style="mediumDashDot"/>
+      <top style="mediumDashDot"/>
+      <bottom style="mediumDashDot"/>
+    </border>
+    <border>
+      <left style="slantDashDot"/>
+      <right style="slantDashDot"/>
+      <top style="slantDashDot"/>
+      <bottom style="slantDashDot"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot"/>
+      <right style="mediumDashDotDot"/>
+      <top style="mediumDashDotDot"/>
+      <bottom style="mediumDashDotDot"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="mediumDashed"/>
+      <right style="mediumDashed"/>
+      <top style="mediumDashed"/>
+      <bottom style="mediumDashed"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="dashDotDot"/>
+      <right style="dashDotDot"/>
+      <top style="dashDotDot"/>
+      <bottom style="dashDotDot"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="dashDot"/>
+      <right style="dashDot"/>
+      <top style="dashDot"/>
+      <bottom style="dashDot"/>
+    </border>
+    <border>
       <left style="dotted"/>
       <right style="dotted"/>
       <top style="dotted"/>
       <bottom style="dotted"/>
     </border>
-    <border>
-      <left style="slantDashDot"/>
-      <right style="slantDashDot"/>
-      <top style="slantDashDot"/>
-      <bottom style="slantDashDot"/>
-    </border>
-    <border>
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
-    </border>
-    <border>
-      <left style="dashDotDot"/>
-      <right style="dashDotDot"/>
-      <top style="dashDotDot"/>
-      <bottom style="dashDotDot"/>
-    </border>
-    <border>
-      <left style="dashDot"/>
-      <right style="dashDot"/>
-      <top style="dashDot"/>
-      <bottom style="dashDot"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="mediumDashDot"/>
-      <right style="mediumDashDot"/>
-      <top style="mediumDashDot"/>
-      <bottom style="mediumDashDot"/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="mediumDashDotDot"/>
-      <right style="mediumDashDotDot"/>
-      <top style="mediumDashDotDot"/>
-      <bottom style="mediumDashDotDot"/>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed"/>
-      <top style="mediumDashed"/>
-      <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-    </border>
   </borders>
   <cellStyleXfs count="34">
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -368,55 +368,55 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">
@@ -475,55 +475,55 @@
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="10" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="1" numFmtId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf applyAlignment="0" applyBorder="1" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="11" fillId="0" fontId="1" numFmtId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf applyAlignment="0" applyBorder="0" applyFont="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="1" numFmtId="0">

--- a/example/parameter.xlsx
+++ b/example/parameter.xlsx
@@ -24,100 +24,100 @@
     <t>FILL STYLE</t>
   </si>
   <si>
+    <t>BDR_Medium</t>
+  </si>
+  <si>
+    <t>PTN_MediumGray</t>
+  </si>
+  <si>
+    <t>BDR_Hair</t>
+  </si>
+  <si>
+    <t>PTN_LightTrellis</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkDown</t>
+  </si>
+  <si>
+    <t>BDR_Thin</t>
+  </si>
+  <si>
+    <t>PTN_LightVertical</t>
+  </si>
+  <si>
+    <t>BDR_Double</t>
+  </si>
+  <si>
+    <t>PTN_LightGray</t>
+  </si>
+  <si>
+    <t>BDR_Dashed</t>
+  </si>
+  <si>
+    <t>PTN_LightDown</t>
+  </si>
+  <si>
+    <t>BDR_SlantDashDot</t>
+  </si>
+  <si>
+    <t>PTN_LightUp</t>
+  </si>
+  <si>
+    <t>BDR_Thick</t>
+  </si>
+  <si>
+    <t>PTN_DarkVertical</t>
+  </si>
+  <si>
     <t>BDR_MediumDashDot</t>
   </si>
   <si>
-    <t>PTN_LightGray</t>
-  </si>
-  <si>
-    <t>BDR_SlantDashDot</t>
-  </si>
-  <si>
-    <t>PTN_LightDown</t>
-  </si>
-  <si>
-    <t>BDR_Thick</t>
+    <t>PTN_Gray0625</t>
+  </si>
+  <si>
+    <t>BDR_DashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkHorizontal</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashed</t>
+  </si>
+  <si>
+    <t>PTN_DarkGrid</t>
+  </si>
+  <si>
+    <t>BDR_None</t>
+  </si>
+  <si>
+    <t>PTN_DarkGray</t>
+  </si>
+  <si>
+    <t>BDR_DashDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkTrellis</t>
+  </si>
+  <si>
+    <t>BDR_Dotted</t>
+  </si>
+  <si>
+    <t>PTN_LightGrid</t>
+  </si>
+  <si>
+    <t>PTN_DarkUp</t>
   </si>
   <si>
     <t>PTN_Gray125</t>
   </si>
   <si>
-    <t>BDR_Hair</t>
-  </si>
-  <si>
-    <t>PTN_DarkGrid</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkTrellis</t>
-  </si>
-  <si>
-    <t>BDR_Thin</t>
-  </si>
-  <si>
-    <t>PTN_LightUp</t>
-  </si>
-  <si>
-    <t>BDR_Dashed</t>
-  </si>
-  <si>
-    <t>PTN_DarkDown</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashed</t>
-  </si>
-  <si>
-    <t>PTN_DarkHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_Double</t>
-  </si>
-  <si>
-    <t>PTN_LightGrid</t>
-  </si>
-  <si>
-    <t>BDR_DashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_LightTrellis</t>
-  </si>
-  <si>
-    <t>BDR_Medium</t>
-  </si>
-  <si>
     <t>PTN_Solid</t>
   </si>
   <si>
-    <t>BDR_None</t>
-  </si>
-  <si>
-    <t>PTN_MediumGray</t>
-  </si>
-  <si>
-    <t>BDR_DashDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkUp</t>
-  </si>
-  <si>
-    <t>BDR_Dotted</t>
-  </si>
-  <si>
-    <t>PTN_DarkVertical</t>
-  </si>
-  <si>
-    <t>PTN_LightVertical</t>
-  </si>
-  <si>
     <t>PTN_LightHorizontal</t>
-  </si>
-  <si>
-    <t>PTN_DarkGray</t>
-  </si>
-  <si>
-    <t>PTN_Gray0625</t>
   </si>
 </sst>
 </file>
@@ -149,6 +149,30 @@
       <patternFill patternType="lightGray"/>
     </fill>
     <fill>
+      <patternFill patternType="mediumGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="lightGray">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
@@ -161,97 +185,73 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="lightUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="gray125">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="mediumGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
@@ -265,70 +265,70 @@
       <bottom style="none"/>
     </border>
     <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+    </border>
+    <border>
+      <left style="mediumDashDotDot"/>
+      <right style="mediumDashDotDot"/>
+      <top style="mediumDashDotDot"/>
+      <bottom style="mediumDashDotDot"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="slantDashDot"/>
+      <right style="slantDashDot"/>
+      <top style="slantDashDot"/>
+      <bottom style="slantDashDot"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
       <left style="mediumDashDot"/>
       <right style="mediumDashDot"/>
       <top style="mediumDashDot"/>
       <bottom style="mediumDashDot"/>
     </border>
     <border>
-      <left style="slantDashDot"/>
-      <right style="slantDashDot"/>
-      <top style="slantDashDot"/>
-      <bottom style="slantDashDot"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-    </border>
-    <border>
-      <left style="mediumDashDotDot"/>
-      <right style="mediumDashDotDot"/>
-      <top style="mediumDashDotDot"/>
-      <bottom style="mediumDashDotDot"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
+      <left style="dashDotDot"/>
+      <right style="dashDotDot"/>
+      <top style="dashDotDot"/>
+      <bottom style="dashDotDot"/>
     </border>
     <border>
       <left style="mediumDashed"/>
       <right style="mediumDashed"/>
       <top style="mediumDashed"/>
       <bottom style="mediumDashed"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="dashDotDot"/>
-      <right style="dashDotDot"/>
-      <top style="dashDotDot"/>
-      <bottom style="dashDotDot"/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
     </border>
     <border>
       <left style="dashDot"/>

--- a/example/parameter.xlsx
+++ b/example/parameter.xlsx
@@ -24,100 +24,100 @@
     <t>FILL STYLE</t>
   </si>
   <si>
+    <t>BDR_DashDotDot</t>
+  </si>
+  <si>
+    <t>PTN_DarkGrid</t>
+  </si>
+  <si>
+    <t>BDR_Dashed</t>
+  </si>
+  <si>
+    <t>PTN_LightGrid</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDot</t>
+  </si>
+  <si>
+    <t>PTN_Solid</t>
+  </si>
+  <si>
+    <t>BDR_Thin</t>
+  </si>
+  <si>
+    <t>PTN_DarkDown</t>
+  </si>
+  <si>
+    <t>BDR_Double</t>
+  </si>
+  <si>
+    <t>PTN_LightHorizontal</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashed</t>
+  </si>
+  <si>
+    <t>PTN_DarkTrellis</t>
+  </si>
+  <si>
     <t>BDR_Medium</t>
   </si>
   <si>
+    <t>PTN_DarkVertical</t>
+  </si>
+  <si>
+    <t>BDR_SlantDashDot</t>
+  </si>
+  <si>
+    <t>PTN_LightVertical</t>
+  </si>
+  <si>
+    <t>BDR_Thick</t>
+  </si>
+  <si>
+    <t>PTN_DarkUp</t>
+  </si>
+  <si>
+    <t>BDR_Hair</t>
+  </si>
+  <si>
+    <t>PTN_LightGray</t>
+  </si>
+  <si>
+    <t>BDR_MediumDashDotDot</t>
+  </si>
+  <si>
     <t>PTN_MediumGray</t>
   </si>
   <si>
-    <t>BDR_Hair</t>
+    <t>BDR_None</t>
+  </si>
+  <si>
+    <t>PTN_LightDown</t>
+  </si>
+  <si>
+    <t>BDR_DashDot</t>
+  </si>
+  <si>
+    <t>PTN_Gray125</t>
+  </si>
+  <si>
+    <t>BDR_Dotted</t>
+  </si>
+  <si>
+    <t>PTN_DarkHorizontal</t>
+  </si>
+  <si>
+    <t>PTN_DarkGray</t>
+  </si>
+  <si>
+    <t>PTN_Gray0625</t>
   </si>
   <si>
     <t>PTN_LightTrellis</t>
   </si>
   <si>
-    <t>BDR_MediumDashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkDown</t>
-  </si>
-  <si>
-    <t>BDR_Thin</t>
-  </si>
-  <si>
-    <t>PTN_LightVertical</t>
-  </si>
-  <si>
-    <t>BDR_Double</t>
-  </si>
-  <si>
-    <t>PTN_LightGray</t>
-  </si>
-  <si>
-    <t>BDR_Dashed</t>
-  </si>
-  <si>
-    <t>PTN_LightDown</t>
-  </si>
-  <si>
-    <t>BDR_SlantDashDot</t>
-  </si>
-  <si>
     <t>PTN_LightUp</t>
-  </si>
-  <si>
-    <t>BDR_Thick</t>
-  </si>
-  <si>
-    <t>PTN_DarkVertical</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashDot</t>
-  </si>
-  <si>
-    <t>PTN_Gray0625</t>
-  </si>
-  <si>
-    <t>BDR_DashDotDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkHorizontal</t>
-  </si>
-  <si>
-    <t>BDR_MediumDashed</t>
-  </si>
-  <si>
-    <t>PTN_DarkGrid</t>
-  </si>
-  <si>
-    <t>BDR_None</t>
-  </si>
-  <si>
-    <t>PTN_DarkGray</t>
-  </si>
-  <si>
-    <t>BDR_DashDot</t>
-  </si>
-  <si>
-    <t>PTN_DarkTrellis</t>
-  </si>
-  <si>
-    <t>BDR_Dotted</t>
-  </si>
-  <si>
-    <t>PTN_LightGrid</t>
-  </si>
-  <si>
-    <t>PTN_DarkUp</t>
-  </si>
-  <si>
-    <t>PTN_Gray125</t>
-  </si>
-  <si>
-    <t>PTN_Solid</t>
-  </si>
-  <si>
-    <t>PTN_LightHorizontal</t>
   </si>
 </sst>
 </file>
@@ -149,109 +149,109 @@
       <patternFill patternType="lightGray"/>
     </fill>
     <fill>
+      <patternFill patternType="darkGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGrid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkTrellis">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightVertical">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="mediumGray">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="lightDown">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkHorizontal">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGray">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor rgb="0000FF"/>
+        <bgColor rgb="FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="lightTrellis">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="darkDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightDown">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="lightUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray0625">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkHorizontal">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkGray">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkTrellis">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightGrid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkUp">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0000FF"/>
-        <bgColor rgb="FFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="lightHorizontal">
         <fgColor rgb="0000FF"/>
         <bgColor rgb="FFFF00"/>
       </patternFill>
@@ -265,12 +265,60 @@
       <bottom style="none"/>
     </border>
     <border>
+      <left style="dashDotDot"/>
+      <right style="dashDotDot"/>
+      <top style="dashDotDot"/>
+      <bottom style="dashDotDot"/>
+    </border>
+    <border>
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <left style="mediumDashDot"/>
+      <right style="mediumDashDot"/>
+      <top style="mediumDashDot"/>
+      <bottom style="mediumDashDot"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="mediumDashed"/>
+      <right style="mediumDashed"/>
+      <top style="mediumDashed"/>
+      <bottom style="mediumDashed"/>
+    </border>
+    <border>
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
     </border>
     <border>
+      <left style="slantDashDot"/>
+      <right style="slantDashDot"/>
+      <top style="slantDashDot"/>
+      <bottom style="slantDashDot"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -281,54 +329,6 @@
       <right style="mediumDashDotDot"/>
       <top style="mediumDashDotDot"/>
       <bottom style="mediumDashDotDot"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="double"/>
-      <right style="double"/>
-      <top style="double"/>
-      <bottom style="double"/>
-    </border>
-    <border>
-      <left style="dashed"/>
-      <right style="dashed"/>
-      <top style="dashed"/>
-      <bottom style="dashed"/>
-    </border>
-    <border>
-      <left style="slantDashDot"/>
-      <right style="slantDashDot"/>
-      <top style="slantDashDot"/>
-      <bottom style="slantDashDot"/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top style="thick"/>
-      <bottom style="thick"/>
-    </border>
-    <border>
-      <left style="mediumDashDot"/>
-      <right style="mediumDashDot"/>
-      <top style="mediumDashDot"/>
-      <bottom style="mediumDashDot"/>
-    </border>
-    <border>
-      <left style="dashDotDot"/>
-      <right style="dashDotDot"/>
-      <top style="dashDotDot"/>
-      <bottom style="dashDotDot"/>
-    </border>
-    <border>
-      <left style="mediumDashed"/>
-      <right style="mediumDashed"/>
-      <top style="mediumDashed"/>
-      <bottom style="mediumDashed"/>
     </border>
     <border>
       <left style="dashDot"/>
